--- a/docs/project/STE_PMR_Planilha Monitoramento de Riscos.xlsx
+++ b/docs/project/STE_PMR_Planilha Monitoramento de Riscos.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$B$6:$I$23</definedName>
     <definedName name="Probabilidade">Planilha1!$K$6:$K$11</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" iterateDelta="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -63,9 +63,6 @@
     <t>Versão:</t>
   </si>
   <si>
-    <t>1.0</t>
-  </si>
-  <si>
     <t>Desenvolvimento</t>
   </si>
   <si>
@@ -100,6 +97,9 @@
   </si>
   <si>
     <t>Projeto está atrasado</t>
+  </si>
+  <si>
+    <t>1.4</t>
   </si>
 </sst>
 </file>
@@ -458,6 +458,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -473,8 +475,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -797,7 +797,7 @@
   <dimension ref="A1:AC86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="H1" sqref="H1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,23 +814,23 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
       <c r="G1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="35"/>
+      <c r="H1" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="33"/>
+      <c r="J1" s="30"/>
       <c r="K1" s="27"/>
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
@@ -853,16 +853,16 @@
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
-      <c r="B2" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
+      <c r="B2" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
       <c r="J2" s="27"/>
       <c r="K2" s="27"/>
       <c r="L2" s="27"/>
@@ -886,14 +886,14 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
       <c r="J3" s="27"/>
       <c r="K3" s="27"/>
       <c r="L3" s="27"/>
@@ -917,14 +917,14 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
       <c r="J4" s="27"/>
       <c r="K4" s="27"/>
       <c r="L4" s="27"/>
@@ -948,14 +948,14 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
       <c r="J5" s="27"/>
       <c r="K5" s="27"/>
       <c r="L5" s="27"/>
@@ -1030,26 +1030,26 @@
         <v>1</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" s="20">
         <v>5</v>
       </c>
       <c r="G7" s="10">
         <f>(E7*F7)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
@@ -1078,26 +1078,26 @@
         <v>2</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8" s="14">
         <v>3</v>
       </c>
       <c r="G8" s="10">
         <f>(E8*F8)</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H8" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="14" t="s">
         <v>21</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>22</v>
       </c>
       <c r="J8" s="27"/>
       <c r="K8" s="27"/>
@@ -1126,10 +1126,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="12">
         <v>3</v>
@@ -1142,10 +1142,10 @@
         <v>6</v>
       </c>
       <c r="H9" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="14" t="s">
         <v>21</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>22</v>
       </c>
       <c r="J9" s="27"/>
       <c r="K9" s="27"/>
@@ -1174,26 +1174,26 @@
         <v>3</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F10" s="23">
         <v>3</v>
       </c>
       <c r="G10" s="10">
         <f>(E10*F10)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
@@ -1223,7 +1223,7 @@
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
-      <c r="G11" s="34"/>
+      <c r="G11" s="29"/>
       <c r="H11" s="28"/>
       <c r="I11" s="8"/>
       <c r="J11" s="27"/>
@@ -3627,7 +3627,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="4">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:F10">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
